--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221121_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221121_NhatMinh.xlsx
@@ -96,9 +96,6 @@
     <t>Hà Nội, ngày 21 tháng 11 năm 2022</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Không khắc phục được</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Xử lý lại sim</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
   </si>
 </sst>
 </file>
@@ -730,6 +730,96 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,96 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1195,7 @@
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1215,77 +1215,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="55" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="58" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="58" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="61" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1294,58 +1294,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="B8" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,26 +1384,26 @@
       <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="41">
+        <v>868183037808883</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="74">
-        <v>868183037808883</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>24</v>
+      <c r="E13" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>31</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -1412,26 +1412,26 @@
       <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="41">
+        <v>868183037816993</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="74">
-        <v>868183037816993</v>
-      </c>
-      <c r="D14" s="73" t="s">
+      <c r="E14" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="G14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>25</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -1454,26 +1454,26 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -1518,45 +1518,45 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B8:I8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221121_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221121_NhatMinh.xlsx
@@ -117,7 +117,7 @@
     <t>Xử lý lại sim</t>
   </si>
   <si>
-    <t>Còn BH</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -736,6 +736,51 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,51 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,7 +1195,7 @@
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1215,77 +1215,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="42" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="45" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="45" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="48" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1294,58 +1294,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1454,26 +1454,26 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -1518,45 +1518,45 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
